--- a/biology/Origine et évolution du vivant/Évolution_parallèle/Évolution_parallèle.xlsx
+++ b/biology/Origine et évolution du vivant/Évolution_parallèle/Évolution_parallèle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89volution_parall%C3%A8le</t>
+          <t>Évolution_parallèle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'étude de l'évolution, le phénomène d'évolution parallèle se produit quand deux espèces indépendantes développent, en même temps et dans un écosystème identique, des caractéristiques similaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89volution_parall%C3%A8le</t>
+          <t>Évolution_parallèle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un des exemples les plus courants d'évolution parallèle est la ressemblance entre les rats-taupes (ordre des rongeurs) et les taupes (ordre des soricomorphes), deux mammifères globalement contemporains. Les taupes sont des mammifères insectivores habitués à vivre sous terre, et qui possèdent des griffes adaptées pour creuser la terre. Les rats, en revanche, sont des mammifères omnivores qui vivent normalement à la surface. Les rats-taupes sont une forme particulière qui, à force de vivre sous terre, a développé des griffes similaires à celles de la taupe, alors que les deux formes appartiennent à des ordres distincts.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89volution_parall%C3%A8le</t>
+          <t>Évolution_parallèle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Homoplasie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'évolution parallèle est différente de la convergence évolutive qui sont toutes deux des types d'homoplasie. L'évolution convergente explique par exemple comment, dans deux écosystèmes différents et à différentes époques, les mouches et les oiseaux ont développé des ailes, ou encore comment les ichthyosaures du Mésozoïque et les dauphins du Cénozoïque ont développé la même forme hydrodynamique.
 </t>
